--- a/biology/Zoologie/Glossodoris_hikuerensis/Glossodoris_hikuerensis.xlsx
+++ b/biology/Zoologie/Glossodoris_hikuerensis/Glossodoris_hikuerensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glossodoris à liseré gris
 Glossodoris hikuerensis une espèce de nudibranches du genre Glossodoris. 
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans la zone tropicale Indo-Ouest Pacifique, des côtes orientales de l'Afrique à la Polynésie française en incluant la mer Rouge[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans la zone tropicale Indo-Ouest Pacifique, des côtes orientales de l'Afrique à la Polynésie française en incluant la mer Rouge.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat est la zone récifale externe, sur les sommets ou sur les pentes jusqu'à la zone des 20 m de profondeur.
 </t>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce peut mesurer plus de 12 cm[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce peut mesurer plus de 12 cm. 
 Le corps de cet animal comprend deux parties distinctes, le pied et le manteau, même si la jupe du manteau est réduite.
 Le dessus du manteau est de teinte dominante brun à gris-rosé plus ou moins intense selon l'individu et moucheté d'une multitude de petits points blancs.
 La bordure de la jupe est très plissée et marquée par trois bandes périphériques, se composant d'une bande blanche, une autre grisée, et une autre blanche.
@@ -611,7 +629,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce glossodoris est benthique et diurne, se déplace à vue sans crainte d'être pris pour une proie de par la présence de glandes défensives réparties dans les tissus du corps.
 </t>
@@ -642,7 +662,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Glossodoris hikuerensis se nourrit principalement d'éponges.
 </t>
